--- a/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i23_Scheibenbremse_Ab14.xlsx
+++ b/datenRF4/AFL/i=23,28 Scheibenbremse, Abtriebswelle=14/Prozesse_Stückliste_L2_S4_i23_Scheibenbremse_Ab14.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24302"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_3124A1FBAFFDA0446CEC66EB0A8A66FDC6D81836" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liria\Desktop\HiWi\testing\BOM\datenRF4\AFL\i=23,28 Scheibenbremse, Abtriebswelle=14\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFF7688-B002-492C-923F-53DB64D7AC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variante 1" sheetId="5" r:id="rId1"/>
@@ -443,7 +448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1498,29 +1503,26 @@
   <dimension ref="A1:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="94" customWidth="1"/>
-    <col min="9" max="9" width="38.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
-    <col min="12" max="12" width="45.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="94" customWidth="1"/>
+    <col min="9" max="9" width="38.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" thickBot="1">
+    <row r="1" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1550,7 @@
       <c r="S1" s="102"/>
       <c r="T1" s="102"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="103" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +1578,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1638,7 +1640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="45.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:20" ht="45.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -1671,7 +1673,7 @@
       </c>
       <c r="T4" s="48"/>
     </row>
-    <row r="5" spans="1:20" ht="47.1" customHeight="1">
+    <row r="5" spans="1:20" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1">
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>6</v>
       </c>
@@ -1757,7 +1759,7 @@
       <c r="S6" s="40"/>
       <c r="T6" s="50"/>
     </row>
-    <row r="7" spans="1:20" ht="15.95" thickBot="1">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -1793,7 +1795,7 @@
       <c r="S7" s="40"/>
       <c r="T7" s="50"/>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1">
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
       <c r="B8" s="34"/>
       <c r="C8" s="34"/>
@@ -1822,7 +1824,7 @@
       <c r="S8" s="40"/>
       <c r="T8" s="50"/>
     </row>
-    <row r="9" spans="1:20" ht="59.1" customHeight="1">
+    <row r="9" spans="1:20" ht="59.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1908,7 +1910,7 @@
       <c r="S10" s="34"/>
       <c r="T10" s="35"/>
     </row>
-    <row r="11" spans="1:20" ht="15" thickBot="1">
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>6</v>
       </c>
@@ -1942,7 +1944,7 @@
       <c r="S11" s="34"/>
       <c r="T11" s="35"/>
     </row>
-    <row r="12" spans="1:20" ht="15.6">
+    <row r="12" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="55">
         <v>1</v>
       </c>
@@ -1978,7 +1980,7 @@
       <c r="S12" s="34"/>
       <c r="T12" s="35"/>
     </row>
-    <row r="13" spans="1:20" ht="29.45" thickBot="1">
+    <row r="13" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9">
         <v>2</v>
       </c>
@@ -2014,7 +2016,7 @@
       <c r="S13" s="34"/>
       <c r="T13" s="35"/>
     </row>
-    <row r="14" spans="1:20" ht="57.95">
+    <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="34"/>
@@ -2043,7 +2045,7 @@
       <c r="S14" s="34"/>
       <c r="T14" s="35"/>
     </row>
-    <row r="15" spans="1:20" ht="57.95">
+    <row r="15" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -2072,7 +2074,7 @@
       <c r="S15" s="34"/>
       <c r="T15" s="35"/>
     </row>
-    <row r="16" spans="1:20" ht="43.5">
+    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="34"/>
@@ -2101,7 +2103,7 @@
       <c r="S16" s="34"/>
       <c r="T16" s="35"/>
     </row>
-    <row r="17" spans="1:20" ht="29.1">
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="34"/>
       <c r="C17" s="34"/>
@@ -2130,7 +2132,7 @@
       <c r="S17" s="34"/>
       <c r="T17" s="35"/>
     </row>
-    <row r="18" spans="1:20" ht="29.1">
+    <row r="18" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -2159,7 +2161,7 @@
       <c r="S18" s="34"/>
       <c r="T18" s="35"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -2180,7 +2182,7 @@
       <c r="S19" s="34"/>
       <c r="T19" s="35"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -2201,7 +2203,7 @@
       <c r="S20" s="34"/>
       <c r="T20" s="35"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2222,7 +2224,7 @@
       <c r="S21" s="34"/>
       <c r="T21" s="35"/>
     </row>
-    <row r="22" spans="1:20" ht="15" thickBot="1">
+    <row r="22" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2243,7 +2245,7 @@
       <c r="S22" s="34"/>
       <c r="T22" s="35"/>
     </row>
-    <row r="23" spans="1:20" ht="87">
+    <row r="23" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>1</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -2329,7 +2331,7 @@
       <c r="S24" s="34"/>
       <c r="T24" s="35"/>
     </row>
-    <row r="25" spans="1:20" ht="15" thickBot="1">
+    <row r="25" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9">
         <v>6</v>
       </c>
@@ -2363,7 +2365,7 @@
       <c r="S25" s="34"/>
       <c r="T25" s="35"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="55">
         <v>1</v>
       </c>
@@ -2399,7 +2401,7 @@
       <c r="S26" s="34"/>
       <c r="T26" s="35"/>
     </row>
-    <row r="27" spans="1:20" ht="29.45" thickBot="1">
+    <row r="27" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9">
         <v>2</v>
       </c>
@@ -2435,7 +2437,7 @@
       <c r="S27" s="34"/>
       <c r="T27" s="35"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -2456,7 +2458,7 @@
       <c r="S28" s="34"/>
       <c r="T28" s="35"/>
     </row>
-    <row r="29" spans="1:20" ht="29.1">
+    <row r="29" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
@@ -2485,7 +2487,7 @@
       <c r="S29" s="34"/>
       <c r="T29" s="35"/>
     </row>
-    <row r="30" spans="1:20" ht="29.1">
+    <row r="30" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -2514,7 +2516,7 @@
       <c r="S30" s="34"/>
       <c r="T30" s="35"/>
     </row>
-    <row r="31" spans="1:20" ht="29.1">
+    <row r="31" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
       <c r="B31" s="16"/>
       <c r="C31" s="15"/>
@@ -2544,7 +2546,7 @@
       <c r="S31" s="34"/>
       <c r="T31" s="35"/>
     </row>
-    <row r="32" spans="1:20" ht="29.45" thickBot="1">
+    <row r="32" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
@@ -2573,7 +2575,7 @@
       <c r="S32" s="34"/>
       <c r="T32" s="35"/>
     </row>
-    <row r="33" spans="1:20" ht="87">
+    <row r="33" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>1</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -2659,7 +2661,7 @@
       <c r="S34" s="34"/>
       <c r="T34" s="35"/>
     </row>
-    <row r="35" spans="1:20" ht="15" thickBot="1">
+    <row r="35" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="9">
         <v>6</v>
       </c>
@@ -2693,7 +2695,7 @@
       <c r="S35" s="34"/>
       <c r="T35" s="35"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="55">
         <v>1</v>
       </c>
@@ -2729,7 +2731,7 @@
       <c r="S36" s="34"/>
       <c r="T36" s="35"/>
     </row>
-    <row r="37" spans="1:20" ht="15" thickBot="1">
+    <row r="37" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="26">
         <v>2</v>
       </c>
@@ -2765,7 +2767,7 @@
       <c r="S37" s="34"/>
       <c r="T37" s="35"/>
     </row>
-    <row r="38" spans="1:20" ht="15" thickBot="1">
+    <row r="38" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="33"/>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -2786,7 +2788,7 @@
       <c r="S38" s="34"/>
       <c r="T38" s="35"/>
     </row>
-    <row r="39" spans="1:20" ht="57.95">
+    <row r="39" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>1</v>
       </c>
@@ -2834,7 +2836,7 @@
       </c>
       <c r="T39" s="35"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -2868,7 +2870,7 @@
       <c r="S40" s="34"/>
       <c r="T40" s="35"/>
     </row>
-    <row r="41" spans="1:20" ht="15" thickBot="1">
+    <row r="41" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="9">
         <v>6</v>
       </c>
@@ -2902,7 +2904,7 @@
       <c r="S41" s="34"/>
       <c r="T41" s="35"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="55">
         <v>1</v>
       </c>
@@ -2938,7 +2940,7 @@
       <c r="S42" s="34"/>
       <c r="T42" s="35"/>
     </row>
-    <row r="43" spans="1:20" ht="15" thickBot="1">
+    <row r="43" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="26">
         <v>2</v>
       </c>
@@ -2974,7 +2976,7 @@
       <c r="S43" s="34"/>
       <c r="T43" s="35"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
@@ -2995,7 +2997,7 @@
       <c r="S44" s="34"/>
       <c r="T44" s="35"/>
     </row>
-    <row r="45" spans="1:20" ht="29.1">
+    <row r="45" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -3024,7 +3026,7 @@
       <c r="S45" s="34"/>
       <c r="T45" s="35"/>
     </row>
-    <row r="46" spans="1:20" ht="44.1" thickBot="1">
+    <row r="46" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
@@ -3053,7 +3055,7 @@
       <c r="S46" s="34"/>
       <c r="T46" s="35"/>
     </row>
-    <row r="47" spans="1:20" ht="57.95">
+    <row r="47" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>1</v>
       </c>
@@ -3107,7 +3109,7 @@
       </c>
       <c r="T47" s="35"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5</v>
       </c>
@@ -3141,7 +3143,7 @@
       <c r="S48" s="34"/>
       <c r="T48" s="35"/>
     </row>
-    <row r="49" spans="1:20" ht="15" thickBot="1">
+    <row r="49" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="9">
         <v>6</v>
       </c>
@@ -3175,7 +3177,7 @@
       <c r="S49" s="34"/>
       <c r="T49" s="35"/>
     </row>
-    <row r="50" spans="1:20" ht="15.6">
+    <row r="50" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="55">
         <v>1</v>
       </c>
@@ -3211,7 +3213,7 @@
       <c r="S50" s="34"/>
       <c r="T50" s="35"/>
     </row>
-    <row r="51" spans="1:20" ht="15" thickBot="1">
+    <row r="51" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="26">
         <v>2</v>
       </c>
@@ -3247,7 +3249,7 @@
       <c r="S51" s="34"/>
       <c r="T51" s="35"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -3268,7 +3270,7 @@
       <c r="S52" s="34"/>
       <c r="T52" s="35"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
@@ -3289,7 +3291,7 @@
       <c r="S53" s="34"/>
       <c r="T53" s="35"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="34"/>
@@ -3310,7 +3312,7 @@
       <c r="S54" s="34"/>
       <c r="T54" s="35"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="C55" s="34"/>
@@ -3331,7 +3333,7 @@
       <c r="S55" s="34"/>
       <c r="T55" s="35"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="34"/>
@@ -3352,7 +3354,7 @@
       <c r="S56" s="34"/>
       <c r="T56" s="35"/>
     </row>
-    <row r="57" spans="1:20" ht="15" thickBot="1">
+    <row r="57" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="34"/>
@@ -3373,7 +3375,7 @@
       <c r="S57" s="34"/>
       <c r="T57" s="35"/>
     </row>
-    <row r="58" spans="1:20" ht="87">
+    <row r="58" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>1</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>5</v>
       </c>
@@ -3459,7 +3461,7 @@
       <c r="S59" s="34"/>
       <c r="T59" s="35"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>6</v>
       </c>
@@ -3493,7 +3495,7 @@
       <c r="S60" s="34"/>
       <c r="T60" s="35"/>
     </row>
-    <row r="61" spans="1:20" ht="15" thickBot="1">
+    <row r="61" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="26"/>
       <c r="B61" s="88">
         <v>2</v>
@@ -3525,7 +3527,7 @@
       <c r="S61" s="34"/>
       <c r="T61" s="35"/>
     </row>
-    <row r="62" spans="1:20" ht="15.95" thickBot="1">
+    <row r="62" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="89"/>
       <c r="B62" s="90">
         <v>3</v>
@@ -3559,7 +3561,7 @@
       <c r="S62" s="34"/>
       <c r="T62" s="35"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
       <c r="B63" s="34"/>
       <c r="C63" s="34"/>
@@ -3580,7 +3582,7 @@
       <c r="S63" s="34"/>
       <c r="T63" s="35"/>
     </row>
-    <row r="64" spans="1:20" ht="44.1" thickBot="1">
+    <row r="64" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="34"/>
@@ -3609,7 +3611,7 @@
       <c r="S64" s="34"/>
       <c r="T64" s="35"/>
     </row>
-    <row r="65" spans="1:20" ht="87">
+    <row r="65" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>1</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>5</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="S66" s="34"/>
       <c r="T66" s="35"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>6</v>
       </c>
@@ -3729,7 +3731,7 @@
       <c r="S67" s="34"/>
       <c r="T67" s="35"/>
     </row>
-    <row r="68" spans="1:20" ht="15" thickBot="1">
+    <row r="68" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="26">
         <v>7</v>
       </c>
@@ -3763,7 +3765,7 @@
       <c r="S68" s="34"/>
       <c r="T68" s="35"/>
     </row>
-    <row r="69" spans="1:20" ht="15.6">
+    <row r="69" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="59">
         <v>1</v>
       </c>
@@ -3799,7 +3801,7 @@
       <c r="S69" s="34"/>
       <c r="T69" s="35"/>
     </row>
-    <row r="70" spans="1:20" ht="15" thickBot="1">
+    <row r="70" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="26">
         <v>2</v>
       </c>
@@ -3835,7 +3837,7 @@
       <c r="S70" s="34"/>
       <c r="T70" s="35"/>
     </row>
-    <row r="71" spans="1:20" ht="29.1">
+    <row r="71" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
       <c r="C71" s="34"/>
@@ -3864,7 +3866,7 @@
       <c r="S71" s="34"/>
       <c r="T71" s="35"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
@@ -3893,7 +3895,7 @@
       <c r="S72" s="34"/>
       <c r="T72" s="35"/>
     </row>
-    <row r="73" spans="1:20" ht="44.1" thickBot="1">
+    <row r="73" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
       <c r="C73" s="34"/>
@@ -3922,7 +3924,7 @@
       <c r="S73" s="34"/>
       <c r="T73" s="35"/>
     </row>
-    <row r="74" spans="1:20" ht="87">
+    <row r="74" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>1</v>
       </c>
@@ -3974,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>5</v>
       </c>
@@ -4008,7 +4010,7 @@
       <c r="S75" s="34"/>
       <c r="T75" s="35"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>6</v>
       </c>
@@ -4042,7 +4044,7 @@
       <c r="S76" s="34"/>
       <c r="T76" s="35"/>
     </row>
-    <row r="77" spans="1:20" ht="15" thickBot="1">
+    <row r="77" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="26">
         <v>7</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="S77" s="34"/>
       <c r="T77" s="35"/>
     </row>
-    <row r="78" spans="1:20" ht="15.6">
+    <row r="78" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="59">
         <v>1</v>
       </c>
@@ -4112,7 +4114,7 @@
       <c r="S78" s="34"/>
       <c r="T78" s="35"/>
     </row>
-    <row r="79" spans="1:20" ht="15" thickBot="1">
+    <row r="79" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="26">
         <v>1</v>
       </c>
@@ -4148,7 +4150,7 @@
       <c r="S79" s="34"/>
       <c r="T79" s="35"/>
     </row>
-    <row r="80" spans="1:20" ht="29.1">
+    <row r="80" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
@@ -4177,7 +4179,7 @@
       <c r="S80" s="34"/>
       <c r="T80" s="35"/>
     </row>
-    <row r="81" spans="1:20" ht="29.45" thickBot="1">
+    <row r="81" spans="1:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
@@ -4206,7 +4208,7 @@
       <c r="S81" s="34"/>
       <c r="T81" s="35"/>
     </row>
-    <row r="82" spans="1:20" ht="43.5">
+    <row r="82" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>1</v>
       </c>
@@ -4248,7 +4250,7 @@
       <c r="S82" s="34"/>
       <c r="T82" s="35"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>5</v>
       </c>
@@ -4282,7 +4284,7 @@
       <c r="S83" s="34"/>
       <c r="T83" s="35"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>6</v>
       </c>
@@ -4316,7 +4318,7 @@
       <c r="S84" s="34"/>
       <c r="T84" s="35"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="29">
         <v>7</v>
       </c>
@@ -4350,7 +4352,7 @@
       <c r="S85" s="34"/>
       <c r="T85" s="35"/>
     </row>
-    <row r="86" spans="1:20" ht="15.95" thickBot="1">
+    <row r="86" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="26">
         <v>8</v>
       </c>
@@ -4386,7 +4388,7 @@
       <c r="S86" s="34"/>
       <c r="T86" s="35"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
@@ -4407,7 +4409,7 @@
       <c r="S87" s="34"/>
       <c r="T87" s="35"/>
     </row>
-    <row r="88" spans="1:20" ht="44.1" thickBot="1">
+    <row r="88" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="33"/>
       <c r="B88" s="34"/>
       <c r="C88" s="34"/>
@@ -4436,7 +4438,7 @@
       <c r="S88" s="34"/>
       <c r="T88" s="35"/>
     </row>
-    <row r="89" spans="1:20" ht="43.5">
+    <row r="89" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>1</v>
       </c>
@@ -4478,7 +4480,7 @@
       <c r="S89" s="34"/>
       <c r="T89" s="35"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>5</v>
       </c>
@@ -4512,7 +4514,7 @@
       <c r="S90" s="34"/>
       <c r="T90" s="35"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>6</v>
       </c>
@@ -4546,7 +4548,7 @@
       <c r="S91" s="34"/>
       <c r="T91" s="35"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="29">
         <v>7</v>
       </c>
@@ -4580,7 +4582,7 @@
       <c r="S92" s="34"/>
       <c r="T92" s="35"/>
     </row>
-    <row r="93" spans="1:20" ht="15.95" thickBot="1">
+    <row r="93" spans="1:20" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="26">
         <v>8</v>
       </c>
@@ -4616,7 +4618,7 @@
       <c r="S93" s="34"/>
       <c r="T93" s="35"/>
     </row>
-    <row r="94" spans="1:20" ht="87">
+    <row r="94" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="H94" s="34">
         <v>20</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
       <c r="J95" s="42"/>
@@ -4664,7 +4666,7 @@
       <c r="S95" s="34"/>
       <c r="T95" s="35"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H96" s="34"/>
       <c r="I96" s="34"/>
       <c r="J96" s="42"/>
@@ -4679,7 +4681,7 @@
       <c r="S96" s="34"/>
       <c r="T96" s="35"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H97" s="34"/>
       <c r="I97" s="34"/>
       <c r="J97" s="42"/>
@@ -4694,7 +4696,7 @@
       <c r="S97" s="34"/>
       <c r="T97" s="35"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="H98" s="34"/>
       <c r="I98" s="34"/>
       <c r="J98" s="42"/>
@@ -4709,7 +4711,7 @@
       <c r="S98" s="34"/>
       <c r="T98" s="35"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="33"/>
       <c r="B99" s="34"/>
       <c r="C99" s="34"/>
@@ -4730,7 +4732,7 @@
       <c r="S99" s="34"/>
       <c r="T99" s="35"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="33"/>
       <c r="B100" s="34"/>
       <c r="C100" s="34"/>
@@ -4751,7 +4753,7 @@
       <c r="S100" s="34"/>
       <c r="T100" s="35"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="33"/>
       <c r="B101" s="34"/>
       <c r="C101" s="34"/>
@@ -4772,7 +4774,7 @@
       <c r="S101" s="34"/>
       <c r="T101" s="35"/>
     </row>
-    <row r="102" spans="1:20" ht="44.1" thickBot="1">
+    <row r="102" spans="1:20" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="37"/>
       <c r="B102" s="38"/>
       <c r="C102" s="38"/>
